--- a/src/ExcelTemplate.Test/Files/Mixture_Template.xlsx
+++ b/src/ExcelTemplate.Test/Files/Mixture_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="29868" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>姓名：</t>
   </si>
   <si>
+    <t>${StudentName}</t>
+  </si>
+  <si>
     <t>性别：</t>
   </si>
   <si>
+    <t>${Sex}</t>
+  </si>
+  <si>
     <t>生日：</t>
   </si>
   <si>
+    <t>${BirthDate}</t>
+  </si>
+  <si>
     <t>第一次模拟考试</t>
   </si>
   <si>
@@ -58,13 +67,49 @@
     <t>排名</t>
   </si>
   <si>
+    <t>${#Scores_1st.SubjectName}</t>
+  </si>
+  <si>
+    <t>${#Scores_1st.Score}</t>
+  </si>
+  <si>
+    <t>${#Scores_1st.Ranking}</t>
+  </si>
+  <si>
+    <t>${#Scores_1st.ExamTime}</t>
+  </si>
+  <si>
     <t>总分：</t>
   </si>
   <si>
+    <t>${TotalScore_1st}</t>
+  </si>
+  <si>
     <t>总排名：</t>
   </si>
   <si>
+    <t>${TotalRanking_1st}</t>
+  </si>
+  <si>
     <t>第二次模拟考试</t>
+  </si>
+  <si>
+    <t>${#Scores_2nd.SubjectName}</t>
+  </si>
+  <si>
+    <t>${#Scores_2nd.Score}</t>
+  </si>
+  <si>
+    <t>${#Scores_2nd.Ranking}</t>
+  </si>
+  <si>
+    <t>${#Scores_2nd.ExamTime}</t>
+  </si>
+  <si>
+    <t>${TotalScore_2nd}</t>
+  </si>
+  <si>
+    <t>${TotalRanking_2nd}</t>
   </si>
 </sst>
 </file>
@@ -761,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,52 +814,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,137 +1160,169 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="9.375"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="9.37962962962963"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="15" t="s">
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="16" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="15" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1351,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1306,7 +1368,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
